--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -1073,11 +1073,11 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -2849,19 +2849,19 @@
   </sheetPr>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="61.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="61.3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="0.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="14.01"/>
@@ -2872,7 +2872,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8503,7 +8503,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8522,7 +8522,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OlWU0Mja2wmC+DUiozppGunrFpfOXmSSHKlOfEC4M91t6XqfPFOpJfDXL/O+bsl/vLmK71s5wGCobmDQvWIZnA==" saltValue="nOKpScXTFKWIkHrkBxXX1g==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8543,16 +8542,16 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
   </cols>
   <sheetData>
@@ -10767,7 +10766,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9lRyMVnRsAk15HxGvBDbeIq3NzGqVgV8rGLb17/rFYd/dSb8F56Oc5wRjHKq4Rkp06oqzOH8U8qknpMXNpxDFA==" saltValue="VD74v9izz0BJh7H6K84uBw==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">varct Rp</t>
   </si>
   <si>
-    <t xml:space="preserve">varq</t>
+    <t xml:space="preserve">fd</t>
   </si>
   <si>
     <t xml:space="preserve">vardq Rp</t>
@@ -235,19 +235,19 @@
     <t xml:space="preserve">vardct Rp</t>
   </si>
   <si>
-    <t xml:space="preserve">vardq</t>
+    <t xml:space="preserve">vl</t>
   </si>
   <si>
     <t xml:space="preserve">vard Rp</t>
   </si>
   <si>
-    <t xml:space="preserve">vard</t>
+    <t xml:space="preserve">vx</t>
   </si>
   <si>
     <t xml:space="preserve">fix Rp</t>
   </si>
   <si>
-    <t xml:space="preserve">fix</t>
+    <t xml:space="preserve">fp</t>
   </si>
   <si>
     <t xml:space="preserve">KA Siantar Express</t>
@@ -1021,14 +1021,14 @@
     <tableColumn id="9" name="Q"/>
     <tableColumn id="10" name="varq Rp"/>
     <tableColumn id="11" name="varct Rp"/>
-    <tableColumn id="12" name="varq"/>
+    <tableColumn id="12" name="fd"/>
     <tableColumn id="13" name="vardq Rp"/>
     <tableColumn id="14" name="vardct Rp"/>
-    <tableColumn id="15" name="vardq"/>
+    <tableColumn id="15" name="vl"/>
     <tableColumn id="16" name="vard Rp"/>
-    <tableColumn id="17" name="vard"/>
+    <tableColumn id="17" name="vx"/>
     <tableColumn id="18" name="fix Rp"/>
-    <tableColumn id="19" name="fix"/>
+    <tableColumn id="19" name="fp"/>
   </tableColumns>
 </table>
 </file>
@@ -1073,11 +1073,11 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -2849,17 +2849,17 @@
   </sheetPr>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="61.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="61.31"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.01"/>
@@ -8503,7 +8503,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8546,7 +8546,7 @@
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>

--- a/test/testdata.xlsx
+++ b/test/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="231">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,6 +58,12 @@
     <t xml:space="preserve">START</t>
   </si>
   <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bank Indonesia Aceh</t>
   </si>
   <si>
@@ -710,48 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVL</t>
   </si>
 </sst>
 </file>
@@ -879,6 +843,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,10 +873,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1048,20 +1012,20 @@
   <autoFilter ref="A1:O47"/>
   <tableColumns count="15">
     <tableColumn id="1" name="point"/>
-    <tableColumn id="2" name="Jan"/>
-    <tableColumn id="3" name="Feb"/>
-    <tableColumn id="4" name="Mar"/>
-    <tableColumn id="5" name="Apr"/>
-    <tableColumn id="6" name="May"/>
-    <tableColumn id="7" name="Jun"/>
-    <tableColumn id="8" name="Jul"/>
-    <tableColumn id="9" name="Aug"/>
-    <tableColumn id="10" name="Sep"/>
-    <tableColumn id="11" name="Oct"/>
-    <tableColumn id="12" name="Nov"/>
-    <tableColumn id="13" name="Dec"/>
-    <tableColumn id="14" name="KM"/>
-    <tableColumn id="15" name="INVL"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
   </tableColumns>
 </table>
 </file>
@@ -1071,13 +1035,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -1091,7 +1055,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,16 +1089,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>95.3168672</v>
@@ -1155,23 +1125,29 @@
         <v>0.001</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L2</f>
         <v>882</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K2" s="4" t="n">
+        <f aca="false">IF(M2&gt;F2,F2,M2)</f>
         <v>2856</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="n">
+        <v>882</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>97.1411612</v>
@@ -1179,7 +1155,7 @@
       <c r="E3" s="0" t="n">
         <v>5.1823794</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>8400</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -1192,23 +1168,29 @@
         <v>0.001</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L3</f>
         <v>690</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K3" s="4" t="n">
+        <f aca="false">IF(M3&gt;F3,F3,M3)</f>
         <v>6192</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.6770692</v>
@@ -1229,23 +1211,29 @@
         <v>0.001</v>
       </c>
       <c r="J4" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L4</f>
         <v>2825</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K4" s="4" t="n">
+        <f aca="false">IF(M4&gt;F4,F4,M4)</f>
         <v>7170</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="0" t="n">
+        <v>2825</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>98.77534</v>
@@ -1253,7 +1241,7 @@
       <c r="E5" s="0" t="n">
         <v>1.7474852</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>4172</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -1266,23 +1254,29 @@
         <v>0.001</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L5</f>
         <v>935</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K5" s="4" t="n">
+        <f aca="false">IF(M5&gt;F5,F5,M5)</f>
         <v>4172</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="0" t="n">
+        <v>935</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>99.0582705</v>
@@ -1303,23 +1297,29 @@
         <v>0.001</v>
       </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L6</f>
         <v>369</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K6" s="4" t="n">
+        <f aca="false">IF(M6&gt;F6,F6,M6)</f>
         <v>4948</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100.3622993</v>
@@ -1327,7 +1327,7 @@
       <c r="E7" s="0" t="n">
         <v>-0.9430504</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>13424</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -1340,23 +1340,29 @@
         <v>0.001</v>
       </c>
       <c r="J7" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L7</f>
         <v>1146</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K7" s="4" t="n">
+        <f aca="false">IF(M7&gt;F7,F7,M7)</f>
         <v>9355</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="0" t="n">
+        <v>1146</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>101.446956</v>
@@ -1377,23 +1383,29 @@
         <v>0.001</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L8</f>
         <v>2432</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K8" s="4" t="n">
+        <f aca="false">IF(M8&gt;F8,F8,M8)</f>
         <v>7000</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="0" t="n">
+        <v>2432</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>17015</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>102.253207</v>
@@ -1401,7 +1413,7 @@
       <c r="E9" s="0" t="n">
         <v>-3.790198</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>2800</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -1414,23 +1426,29 @@
         <v>0.001</v>
       </c>
       <c r="J9" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L9</f>
         <v>746</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K9" s="4" t="n">
+        <f aca="false">IF(M9&gt;F9,F9,M9)</f>
         <v>2800</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="0" t="n">
+        <v>746</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>103.5828587</v>
@@ -1451,23 +1469,29 @@
         <v>0.001</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L10</f>
         <v>1150</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K10" s="4" t="n">
+        <f aca="false">IF(M10&gt;F10,F10,M10)</f>
         <v>6687</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>104.0558977</v>
@@ -1475,7 +1499,7 @@
       <c r="E11" s="0" t="n">
         <v>1.1292039</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>7700</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -1488,23 +1512,29 @@
         <v>0.001</v>
       </c>
       <c r="J11" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L11</f>
         <v>1763</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K11" s="4" t="n">
+        <f aca="false">IF(M11&gt;F11,F11,M11)</f>
         <v>5114</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="0" t="n">
+        <v>1763</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>104.7544829</v>
@@ -1525,23 +1555,29 @@
         <v>0.001</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L12</f>
         <v>2412</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K12" s="4" t="n">
+        <f aca="false">IF(M12&gt;F12,F12,M12)</f>
         <v>12579</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="0" t="n">
+        <v>2412</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>12579</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>105.267406</v>
@@ -1549,7 +1585,7 @@
       <c r="E13" s="0" t="n">
         <v>-5.4434601</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>22400</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -1562,23 +1598,29 @@
         <v>0.001</v>
       </c>
       <c r="J13" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L13</f>
         <v>1956</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K13" s="4" t="n">
+        <f aca="false">IF(M13&gt;F13,F13,M13)</f>
         <v>11641</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>11641</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>106.1498068</v>
@@ -1599,23 +1641,29 @@
         <v>0.001</v>
       </c>
       <c r="J14" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L14</f>
         <v>1389</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K14" s="4" t="n">
+        <f aca="false">IF(M14&gt;F14,F14,M14)</f>
         <v>7686</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="0" t="n">
+        <v>1389</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>106.1570726</v>
@@ -1623,7 +1671,7 @@
       <c r="E15" s="0" t="n">
         <v>-2.1489221</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>8190</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -1636,23 +1684,29 @@
         <v>0.001</v>
       </c>
       <c r="J15" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L15</f>
         <v>545</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K15" s="4" t="n">
+        <f aca="false">IF(M15&gt;F15,F15,M15)</f>
         <v>5717</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>106.8247514</v>
@@ -1673,23 +1727,29 @@
         <v>0.001</v>
       </c>
       <c r="J16" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L16</f>
         <v>-9999999</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K16" s="4" t="n">
+        <f aca="false">IF(M16&gt;F16,F16,M16)</f>
         <v>495618</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="0" t="n">
+        <v>-9999999</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>495618</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>107.6092794</v>
@@ -1697,7 +1757,7 @@
       <c r="E17" s="0" t="n">
         <v>-6.9143356</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>72956</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -1710,23 +1770,29 @@
         <v>0.001</v>
       </c>
       <c r="J17" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L17</f>
         <v>2649</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K17" s="4" t="n">
+        <f aca="false">IF(M17&gt;F17,F17,M17)</f>
         <v>21851</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="0" t="n">
+        <v>2649</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>21851</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>108.2257789</v>
@@ -1747,23 +1813,29 @@
         <v>0.001</v>
       </c>
       <c r="J18" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L18</f>
         <v>608</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K18" s="4" t="n">
+        <f aca="false">IF(M18&gt;F18,F18,M18)</f>
         <v>3990</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>108.5721852</v>
@@ -1771,7 +1843,7 @@
       <c r="E19" s="0" t="n">
         <v>-6.7189802</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>21000</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -1784,23 +1856,29 @@
         <v>0.001</v>
       </c>
       <c r="J19" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L19</f>
         <v>1142</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K19" s="4" t="n">
+        <f aca="false">IF(M19&gt;F19,F19,M19)</f>
         <v>6465</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="0" t="n">
+        <v>1142</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>109.1288435</v>
@@ -1821,23 +1899,29 @@
         <v>0.001</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L20</f>
         <v>947</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K20" s="4" t="n">
+        <f aca="false">IF(M20&gt;F20,F20,M20)</f>
         <v>5741</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="0" t="n">
+        <v>947</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>109.2379672</v>
@@ -1845,7 +1929,7 @@
       <c r="E21" s="0" t="n">
         <v>-7.4222463</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>1680</v>
       </c>
       <c r="G21" s="0" t="n">
@@ -1858,23 +1942,29 @@
         <v>0.001</v>
       </c>
       <c r="J21" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L21</f>
         <v>688</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K21" s="4" t="n">
+        <f aca="false">IF(M21&gt;F21,F21,M21)</f>
         <v>1680</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>109.35379</v>
@@ -1895,23 +1985,29 @@
         <v>0.001</v>
       </c>
       <c r="J22" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L22</f>
         <v>1770</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K22" s="4" t="n">
+        <f aca="false">IF(M22&gt;F22,F22,M22)</f>
         <v>6447</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="0" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>110.3659379</v>
@@ -1919,7 +2015,7 @@
       <c r="E23" s="0" t="n">
         <v>-7.8018115</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>17078</v>
       </c>
       <c r="G23" s="0" t="n">
@@ -1932,23 +2028,29 @@
         <v>0.001</v>
       </c>
       <c r="J23" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L23</f>
         <v>1492</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K23" s="4" t="n">
+        <f aca="false">IF(M23&gt;F23,F23,M23)</f>
         <v>9606</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="0" t="n">
+        <v>1492</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>9606</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>110.4226331</v>
@@ -1969,23 +2071,29 @@
         <v>0.001</v>
       </c>
       <c r="J24" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L24</f>
         <v>2418</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K24" s="4" t="n">
+        <f aca="false">IF(M24&gt;F24,F24,M24)</f>
         <v>12950</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="0" t="n">
+        <v>2418</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>110.8295009</v>
@@ -1993,7 +2101,7 @@
       <c r="E25" s="0" t="n">
         <v>-7.5708804</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>18900</v>
       </c>
       <c r="G25" s="0" t="n">
@@ -2006,23 +2114,29 @@
         <v>0.001</v>
       </c>
       <c r="J25" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L25</f>
         <v>978</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K25" s="4" t="n">
+        <f aca="false">IF(M25&gt;F25,F25,M25)</f>
         <v>11090</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="0" t="n">
+        <v>978</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>112.0138795</v>
@@ -2043,23 +2157,29 @@
         <v>0.001</v>
       </c>
       <c r="J26" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L26</f>
         <v>1315</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K26" s="4" t="n">
+        <f aca="false">IF(M26&gt;F26,F26,M26)</f>
         <v>5250</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="0" t="n">
+        <v>1315</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>11026</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>112.6314473</v>
@@ -2067,7 +2187,7 @@
       <c r="E27" s="0" t="n">
         <v>-7.9816268</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>3612</v>
       </c>
       <c r="G27" s="0" t="n">
@@ -2080,23 +2200,29 @@
         <v>0.001</v>
       </c>
       <c r="J27" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L27</f>
         <v>914</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K27" s="4" t="n">
+        <f aca="false">IF(M27&gt;F27,F27,M27)</f>
         <v>3612</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="0" t="n">
+        <v>914</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>112.7377473</v>
@@ -2117,23 +2243,29 @@
         <v>0.001</v>
       </c>
       <c r="J28" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L28</f>
         <v>3957</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K28" s="4" t="n">
+        <f aca="false">IF(M28&gt;F28,F28,M28)</f>
         <v>17758</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="0" t="n">
+        <v>3957</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>17758</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>113.6793971</v>
@@ -2141,7 +2273,7 @@
       <c r="E29" s="0" t="n">
         <v>-8.1782815</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>13415</v>
       </c>
       <c r="G29" s="0" t="n">
@@ -2154,23 +2286,29 @@
         <v>0.001</v>
       </c>
       <c r="J29" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L29</f>
         <v>944</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K29" s="4" t="n">
+        <f aca="false">IF(M29&gt;F29,F29,M29)</f>
         <v>13208</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>13208</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>113.925826</v>
@@ -2191,23 +2329,29 @@
         <v>0.001</v>
       </c>
       <c r="J30" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L30</f>
         <v>1823</v>
       </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K30" s="4" t="n">
+        <f aca="false">IF(M30&gt;F30,F30,M30)</f>
         <v>2520</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="0" t="n">
+        <v>1823</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>114.5918511</v>
@@ -2215,7 +2359,7 @@
       <c r="E31" s="0" t="n">
         <v>-3.3236478</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <v>6888</v>
       </c>
       <c r="G31" s="0" t="n">
@@ -2228,23 +2372,29 @@
         <v>0.001</v>
       </c>
       <c r="J31" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L31</f>
         <v>1141</v>
       </c>
-      <c r="K31" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K31" s="4" t="n">
+        <f aca="false">IF(M31&gt;F31,F31,M31)</f>
         <v>6888</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="0" t="n">
+        <v>1141</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>115.222783</v>
@@ -2265,23 +2415,29 @@
         <v>0.001</v>
       </c>
       <c r="J32" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L32</f>
         <v>2928</v>
       </c>
-      <c r="K32" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K32" s="4" t="n">
+        <f aca="false">IF(M32&gt;F32,F32,M32)</f>
         <v>8510</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="0" t="n">
+        <v>2928</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>116.102498</v>
@@ -2289,7 +2445,7 @@
       <c r="E33" s="0" t="n">
         <v>-8.580817</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <v>3080</v>
       </c>
       <c r="G33" s="0" t="n">
@@ -2302,23 +2458,29 @@
         <v>0.001</v>
       </c>
       <c r="J33" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L33</f>
         <v>1291</v>
       </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K33" s="4" t="n">
+        <f aca="false">IF(M33&gt;F33,F33,M33)</f>
         <v>3080</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="0" t="n">
+        <v>1291</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>116.8291272</v>
@@ -2339,23 +2501,29 @@
         <v>0.001</v>
       </c>
       <c r="J34" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L34</f>
         <v>948</v>
       </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K34" s="4" t="n">
+        <f aca="false">IF(M34&gt;F34,F34,M34)</f>
         <v>4907</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="0" t="n">
+        <v>948</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>117.1380567</v>
@@ -2363,7 +2531,7 @@
       <c r="E35" s="0" t="n">
         <v>-0.5008913</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="5" t="n">
         <v>15246</v>
       </c>
       <c r="G35" s="0" t="n">
@@ -2376,23 +2544,29 @@
         <v>0.001</v>
       </c>
       <c r="J35" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L35</f>
         <v>1512</v>
       </c>
-      <c r="K35" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K35" s="4" t="n">
+        <f aca="false">IF(M35&gt;F35,F35,M35)</f>
         <v>5607</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="0" t="n">
+        <v>1512</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>117.5750747</v>
@@ -2413,23 +2587,29 @@
         <v>0.001</v>
       </c>
       <c r="J36" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L36</f>
         <v>421</v>
       </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K36" s="4" t="n">
+        <f aca="false">IF(M36&gt;F36,F36,M36)</f>
         <v>1092</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>118.8895996</v>
@@ -2437,7 +2617,7 @@
       <c r="E37" s="0" t="n">
         <v>-2.6778004</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="5" t="n">
         <v>1120</v>
       </c>
       <c r="G37" s="0" t="n">
@@ -2450,23 +2630,29 @@
         <v>0.001</v>
       </c>
       <c r="J37" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L37</f>
         <v>414</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K37" s="4" t="n">
+        <f aca="false">IF(M37&gt;F37,F37,M37)</f>
         <v>1120</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>119.4141384</v>
@@ -2487,23 +2673,29 @@
         <v>0.001</v>
       </c>
       <c r="J38" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L38</f>
         <v>2224</v>
       </c>
-      <c r="K38" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K38" s="4" t="n">
+        <f aca="false">IF(M38&gt;F38,F38,M38)</f>
         <v>13867</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="0" t="n">
+        <v>2224</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>13867</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>119.870193</v>
@@ -2511,7 +2703,7 @@
       <c r="E39" s="0" t="n">
         <v>-0.8891689</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="5" t="n">
         <v>2310</v>
       </c>
       <c r="G39" s="0" t="n">
@@ -2524,23 +2716,29 @@
         <v>0.001</v>
       </c>
       <c r="J39" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L39</f>
         <v>805</v>
       </c>
-      <c r="K39" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K39" s="4" t="n">
+        <f aca="false">IF(M39&gt;F39,F39,M39)</f>
         <v>2310</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L39" s="0" t="n">
+        <v>805</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>122.5507713</v>
@@ -2561,23 +2759,29 @@
         <v>0.001</v>
       </c>
       <c r="J40" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L40</f>
         <v>728</v>
       </c>
-      <c r="K40" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K40" s="4" t="n">
+        <f aca="false">IF(M40&gt;F40,F40,M40)</f>
         <v>2072</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L40" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>11026</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>123.077416</v>
@@ -2585,7 +2789,7 @@
       <c r="E41" s="0" t="n">
         <v>0.5353762</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="5" t="n">
         <v>3150</v>
       </c>
       <c r="G41" s="0" t="n">
@@ -2598,23 +2802,29 @@
         <v>0.001</v>
       </c>
       <c r="J41" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L41</f>
         <v>330</v>
       </c>
-      <c r="K41" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K41" s="4" t="n">
+        <f aca="false">IF(M41&gt;F41,F41,M41)</f>
         <v>2397</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>123.6059201</v>
@@ -2635,23 +2845,29 @@
         <v>0.001</v>
       </c>
       <c r="J42" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L42</f>
         <v>1074</v>
       </c>
-      <c r="K42" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K42" s="4" t="n">
+        <f aca="false">IF(M42&gt;F42,F42,M42)</f>
         <v>3625</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="0" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>124.8428007</v>
@@ -2659,7 +2875,7 @@
       <c r="E43" s="0" t="n">
         <v>1.4677089</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="5" t="n">
         <v>17254</v>
       </c>
       <c r="G43" s="0" t="n">
@@ -2672,23 +2888,29 @@
         <v>0.001</v>
       </c>
       <c r="J43" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L43</f>
         <v>983</v>
       </c>
-      <c r="K43" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K43" s="4" t="n">
+        <f aca="false">IF(M43&gt;F43,F43,M43)</f>
         <v>6020</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L43" s="0" t="n">
+        <v>983</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>127.3807226</v>
@@ -2709,23 +2931,29 @@
         <v>0.001</v>
       </c>
       <c r="J44" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L44</f>
         <v>362</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K44" s="4" t="n">
+        <f aca="false">IF(M44&gt;F44,F44,M44)</f>
         <v>1944</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L44" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>128.1843218</v>
@@ -2733,7 +2961,7 @@
       <c r="E45" s="0" t="n">
         <v>-3.6947983</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="5" t="n">
         <v>2175</v>
       </c>
       <c r="G45" s="0" t="n">
@@ -2746,23 +2974,29 @@
         <v>0.001</v>
       </c>
       <c r="J45" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L45</f>
         <v>478</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K45" s="4" t="n">
+        <f aca="false">IF(M45&gt;F45,F45,M45)</f>
         <v>2175</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L45" s="0" t="n">
+        <v>478</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>134.07563</v>
@@ -2783,23 +3017,29 @@
         <v>0.001</v>
       </c>
       <c r="J46" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L46</f>
         <v>443</v>
       </c>
-      <c r="K46" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K46" s="4" t="n">
+        <f aca="false">IF(M46&gt;F46,F46,M46)</f>
         <v>490</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L46" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>140.7058042</v>
@@ -2807,7 +3047,7 @@
       <c r="E47" s="0" t="n">
         <v>-2.5390505</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="5" t="n">
         <v>18018</v>
       </c>
       <c r="G47" s="0" t="n">
@@ -2820,11 +3060,17 @@
         <v>0.001</v>
       </c>
       <c r="J47" s="0" t="n">
-        <f aca="false">Table9[[#This Row],[KM]]</f>
+        <f aca="false">L47</f>
         <v>1652</v>
       </c>
-      <c r="K47" s="0" t="n">
-        <f aca="false">IF(Table9[[#This Row],[INVL]]&gt;Table1[[#This Row],[MAX]],Table1[[#This Row],[MAX]],Table9[[#This Row],[INVL]])</f>
+      <c r="K47" s="4" t="n">
+        <f aca="false">IF(M47&gt;F47,F47,M47)</f>
+        <v>9346</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="M47" s="0" t="n">
         <v>9346</v>
       </c>
     </row>
@@ -2849,11 +3095,11 @@
   </sheetPr>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -2886,52 +3132,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,19 +3185,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1000</v>
@@ -2963,39 +3209,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="6" t="n">
+      <c r="P2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S2" s="6" t="n">
+      <c r="R2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3005,19 +3251,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1000</v>
@@ -3029,39 +3275,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="6" t="n">
+      <c r="P3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" s="6" t="n">
+      <c r="R3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3071,19 +3317,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1000</v>
@@ -3095,39 +3341,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="6" t="n">
+      <c r="P4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S4" s="6" t="n">
+      <c r="R4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3137,19 +3383,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1000</v>
@@ -3161,39 +3407,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S5" s="6" t="n">
+      <c r="R5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3203,19 +3449,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1000</v>
@@ -3227,39 +3473,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="6" t="n">
+      <c r="P6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S6" s="6" t="n">
+      <c r="R6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3269,19 +3515,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1000</v>
@@ -3293,39 +3539,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="6" t="n">
+      <c r="P7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S7" s="6" t="n">
+      <c r="R7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3335,19 +3581,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1000</v>
@@ -3359,39 +3605,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="6" t="n">
+      <c r="P8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S8" s="6" t="n">
+      <c r="R8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3401,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1000</v>
@@ -3425,39 +3671,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S9" s="6" t="n">
+      <c r="R9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3467,19 +3713,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1000</v>
@@ -3491,39 +3737,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="6" t="n">
+      <c r="P10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" s="6" t="n">
+      <c r="R10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3533,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1000</v>
@@ -3557,39 +3803,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="6" t="n">
+      <c r="P11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S11" s="6" t="n">
+      <c r="R11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3599,19 +3845,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1000</v>
@@ -3623,39 +3869,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="6" t="n">
+      <c r="P12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S12" s="6" t="n">
+      <c r="R12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3665,19 +3911,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1000</v>
@@ -3689,39 +3935,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="6" t="n">
+      <c r="P13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S13" s="6" t="n">
+      <c r="R13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3731,19 +3977,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1000</v>
@@ -3755,39 +4001,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="6" t="n">
+      <c r="P14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" s="6" t="n">
+      <c r="R14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3797,19 +4043,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1000</v>
@@ -3821,39 +4067,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="6" t="n">
+      <c r="P15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" s="6" t="n">
+      <c r="R15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3863,19 +4109,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1000</v>
@@ -3887,39 +4133,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="6" t="n">
+      <c r="P16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S16" s="6" t="n">
+      <c r="R16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3929,19 +4175,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1000</v>
@@ -3953,39 +4199,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="6" t="n">
+      <c r="P17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" s="6" t="n">
+      <c r="R17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3995,19 +4241,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1000</v>
@@ -4019,39 +4265,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="6" t="n">
+      <c r="P18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S18" s="6" t="n">
+      <c r="R18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4061,19 +4307,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1000</v>
@@ -4085,39 +4331,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="6" t="n">
+      <c r="P19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" s="6" t="n">
+      <c r="R19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4127,19 +4373,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1000</v>
@@ -4151,39 +4397,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="6" t="n">
+      <c r="P20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" s="6" t="n">
+      <c r="R20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4193,19 +4439,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1000</v>
@@ -4217,39 +4463,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="6" t="n">
+      <c r="P21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S21" s="6" t="n">
+      <c r="R21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4259,19 +4505,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1000</v>
@@ -4283,39 +4529,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="6" t="n">
+      <c r="P22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" s="6" t="n">
+      <c r="R22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4325,19 +4571,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1000</v>
@@ -4349,39 +4595,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="6" t="n">
+      <c r="P23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S23" s="6" t="n">
+      <c r="R23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4391,19 +4637,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1000</v>
@@ -4415,39 +4661,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="6" t="n">
+      <c r="P24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S24" s="6" t="n">
+      <c r="R24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4457,19 +4703,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1000</v>
@@ -4481,39 +4727,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="N25" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="6" t="n">
+      <c r="P25" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S25" s="6" t="n">
+      <c r="R25" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4523,19 +4769,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1000</v>
@@ -4547,39 +4793,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="N26" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="6" t="n">
+      <c r="P26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" s="6" t="n">
+      <c r="R26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4589,19 +4835,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1000</v>
@@ -4613,39 +4859,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="N27" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="6" t="n">
+      <c r="P27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" s="6" t="n">
+      <c r="R27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4655,19 +4901,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1000</v>
@@ -4679,39 +4925,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N28" s="5" t="n">
+      <c r="N28" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="6" t="n">
+      <c r="P28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S28" s="6" t="n">
+      <c r="R28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4721,19 +4967,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1000</v>
@@ -4745,39 +4991,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="N29" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="6" t="n">
+      <c r="P29" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S29" s="6" t="n">
+      <c r="R29" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4787,19 +5033,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1000</v>
@@ -4811,39 +5057,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N30" s="5" t="n">
+      <c r="N30" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="6" t="n">
+      <c r="P30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S30" s="6" t="n">
+      <c r="R30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4853,19 +5099,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1000</v>
@@ -4877,39 +5123,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="N31" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="6" t="n">
+      <c r="P31" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S31" s="6" t="n">
+      <c r="R31" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4919,19 +5165,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1000</v>
@@ -4943,39 +5189,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N32" s="5" t="n">
+      <c r="N32" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="6" t="n">
+      <c r="P32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S32" s="6" t="n">
+      <c r="R32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4985,19 +5231,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1000</v>
@@ -5009,39 +5255,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L33" s="6" t="n">
+      <c r="L33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M33" s="6" t="n">
+      <c r="M33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N33" s="5" t="n">
+      <c r="N33" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="6" t="n">
+      <c r="P33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S33" s="6" t="n">
+      <c r="R33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5051,19 +5297,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1000</v>
@@ -5075,39 +5321,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N34" s="5" t="n">
+      <c r="N34" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="6" t="n">
+      <c r="P34" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S34" s="6" t="n">
+      <c r="R34" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5117,19 +5363,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1000</v>
@@ -5141,39 +5387,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L35" s="6" t="n">
+      <c r="L35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N35" s="5" t="n">
+      <c r="N35" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="6" t="n">
+      <c r="P35" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S35" s="6" t="n">
+      <c r="R35" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5183,19 +5429,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1000</v>
@@ -5207,39 +5453,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L36" s="6" t="n">
+      <c r="L36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N36" s="5" t="n">
+      <c r="N36" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="6" t="n">
+      <c r="P36" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S36" s="6" t="n">
+      <c r="R36" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5249,19 +5495,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1000</v>
@@ -5273,39 +5519,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N37" s="5" t="n">
+      <c r="N37" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="6" t="n">
+      <c r="P37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S37" s="6" t="n">
+      <c r="R37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5315,19 +5561,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1000</v>
@@ -5339,39 +5585,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="L38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N38" s="5" t="n">
+      <c r="N38" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="6" t="n">
+      <c r="P38" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S38" s="6" t="n">
+      <c r="R38" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5381,19 +5627,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1000</v>
@@ -5405,39 +5651,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L39" s="6" t="n">
+      <c r="L39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N39" s="5" t="n">
+      <c r="N39" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="6" t="n">
+      <c r="P39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S39" s="6" t="n">
+      <c r="R39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5447,19 +5693,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1000</v>
@@ -5471,39 +5717,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N40" s="5" t="n">
+      <c r="N40" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="6" t="n">
+      <c r="P40" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S40" s="6" t="n">
+      <c r="R40" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5513,19 +5759,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1000</v>
@@ -5537,39 +5783,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L41" s="6" t="n">
+      <c r="L41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N41" s="5" t="n">
+      <c r="N41" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="6" t="n">
+      <c r="P41" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S41" s="6" t="n">
+      <c r="R41" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5579,19 +5825,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1000</v>
@@ -5603,39 +5849,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L42" s="6" t="n">
+      <c r="L42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N42" s="5" t="n">
+      <c r="N42" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="6" t="n">
+      <c r="P42" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S42" s="6" t="n">
+      <c r="R42" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5645,19 +5891,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1000</v>
@@ -5669,39 +5915,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N43" s="5" t="n">
+      <c r="N43" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P43" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="6" t="n">
+      <c r="P43" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R43" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S43" s="6" t="n">
+      <c r="R43" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5711,19 +5957,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1000</v>
@@ -5735,39 +5981,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N44" s="5" t="n">
+      <c r="N44" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P44" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="6" t="n">
+      <c r="P44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R44" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S44" s="6" t="n">
+      <c r="R44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5777,19 +6023,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>1000</v>
@@ -5801,39 +6047,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L45" s="6" t="n">
+      <c r="L45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N45" s="5" t="n">
+      <c r="N45" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O45" s="6" t="n">
+      <c r="O45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="6" t="n">
+      <c r="P45" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S45" s="6" t="n">
+      <c r="R45" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5843,19 +6089,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1000</v>
@@ -5867,39 +6113,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L46" s="6" t="n">
+      <c r="L46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N46" s="5" t="n">
+      <c r="N46" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O46" s="6" t="n">
+      <c r="O46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P46" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="6" t="n">
+      <c r="P46" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R46" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S46" s="6" t="n">
+      <c r="R46" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5909,19 +6155,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>1000</v>
@@ -5933,39 +6179,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="K47" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L47" s="6" t="n">
+      <c r="L47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M47" s="6" t="n">
+      <c r="M47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N47" s="5" t="n">
+      <c r="N47" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O47" s="6" t="n">
+      <c r="O47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="6" t="n">
+      <c r="P47" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R47" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S47" s="6" t="n">
+      <c r="R47" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5975,19 +6221,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1000</v>
@@ -5999,39 +6245,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J48" s="5" t="n">
+      <c r="J48" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L48" s="6" t="n">
+      <c r="L48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M48" s="6" t="n">
+      <c r="M48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N48" s="5" t="n">
+      <c r="N48" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="6" t="n">
+      <c r="P48" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R48" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S48" s="6" t="n">
+      <c r="R48" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6041,19 +6287,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1000</v>
@@ -6065,39 +6311,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J49" s="5" t="n">
+      <c r="J49" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="K49" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L49" s="6" t="n">
+      <c r="L49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M49" s="6" t="n">
+      <c r="M49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N49" s="5" t="n">
+      <c r="N49" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O49" s="6" t="n">
+      <c r="O49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P49" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="6" t="n">
+      <c r="P49" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R49" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S49" s="6" t="n">
+      <c r="R49" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6107,19 +6353,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1000</v>
@@ -6131,39 +6377,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J50" s="5" t="n">
+      <c r="J50" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="K50" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L50" s="6" t="n">
+      <c r="L50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N50" s="5" t="n">
+      <c r="N50" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O50" s="6" t="n">
+      <c r="O50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P50" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="6" t="n">
+      <c r="P50" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R50" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S50" s="6" t="n">
+      <c r="R50" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6173,19 +6419,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1000</v>
@@ -6197,39 +6443,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J51" s="5" t="n">
+      <c r="J51" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="K51" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L51" s="6" t="n">
+      <c r="L51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="M51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N51" s="5" t="n">
+      <c r="N51" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O51" s="6" t="n">
+      <c r="O51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="6" t="n">
+      <c r="P51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S51" s="6" t="n">
+      <c r="R51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6239,19 +6485,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>1000</v>
@@ -6263,39 +6509,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J52" s="5" t="n">
+      <c r="J52" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="K52" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L52" s="6" t="n">
+      <c r="L52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M52" s="6" t="n">
+      <c r="M52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N52" s="5" t="n">
+      <c r="N52" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O52" s="6" t="n">
+      <c r="O52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P52" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="6" t="n">
+      <c r="P52" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R52" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S52" s="6" t="n">
+      <c r="R52" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6305,19 +6551,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>1000</v>
@@ -6329,39 +6575,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J53" s="5" t="n">
+      <c r="J53" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="K53" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L53" s="6" t="n">
+      <c r="L53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M53" s="6" t="n">
+      <c r="M53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N53" s="5" t="n">
+      <c r="N53" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O53" s="6" t="n">
+      <c r="O53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P53" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="6" t="n">
+      <c r="P53" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R53" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S53" s="6" t="n">
+      <c r="R53" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6371,19 +6617,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>1000</v>
@@ -6395,39 +6641,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J54" s="5" t="n">
+      <c r="J54" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="K54" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L54" s="6" t="n">
+      <c r="L54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M54" s="6" t="n">
+      <c r="M54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N54" s="5" t="n">
+      <c r="N54" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O54" s="6" t="n">
+      <c r="O54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P54" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="6" t="n">
+      <c r="P54" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R54" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S54" s="6" t="n">
+      <c r="R54" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6437,19 +6683,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>1000</v>
@@ -6461,39 +6707,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J55" s="5" t="n">
+      <c r="J55" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="K55" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L55" s="6" t="n">
+      <c r="L55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M55" s="6" t="n">
+      <c r="M55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N55" s="5" t="n">
+      <c r="N55" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O55" s="6" t="n">
+      <c r="O55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="6" t="n">
+      <c r="P55" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S55" s="6" t="n">
+      <c r="R55" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6503,19 +6749,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>1000</v>
@@ -6527,39 +6773,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="K56" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L56" s="6" t="n">
+      <c r="L56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M56" s="6" t="n">
+      <c r="M56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N56" s="5" t="n">
+      <c r="N56" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O56" s="6" t="n">
+      <c r="O56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="6" t="n">
+      <c r="P56" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R56" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S56" s="6" t="n">
+      <c r="R56" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6569,19 +6815,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1000</v>
@@ -6593,39 +6839,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J57" s="5" t="n">
+      <c r="J57" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K57" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L57" s="6" t="n">
+      <c r="L57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M57" s="6" t="n">
+      <c r="M57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N57" s="5" t="n">
+      <c r="N57" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O57" s="6" t="n">
+      <c r="O57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P57" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="6" t="n">
+      <c r="P57" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R57" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S57" s="6" t="n">
+      <c r="R57" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6635,19 +6881,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1000</v>
@@ -6659,39 +6905,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K58" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L58" s="6" t="n">
+      <c r="L58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M58" s="6" t="n">
+      <c r="M58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N58" s="5" t="n">
+      <c r="N58" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O58" s="6" t="n">
+      <c r="O58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P58" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="6" t="n">
+      <c r="P58" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R58" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S58" s="6" t="n">
+      <c r="R58" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6701,19 +6947,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1000</v>
@@ -6725,39 +6971,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J59" s="5" t="n">
+      <c r="J59" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K59" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L59" s="6" t="n">
+      <c r="L59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M59" s="6" t="n">
+      <c r="M59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N59" s="5" t="n">
+      <c r="N59" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O59" s="6" t="n">
+      <c r="O59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P59" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="6" t="n">
+      <c r="P59" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R59" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S59" s="6" t="n">
+      <c r="R59" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6767,19 +7013,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1000</v>
@@ -6791,39 +7037,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J60" s="5" t="n">
+      <c r="J60" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="K60" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L60" s="6" t="n">
+      <c r="L60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M60" s="6" t="n">
+      <c r="M60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N60" s="5" t="n">
+      <c r="N60" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O60" s="6" t="n">
+      <c r="O60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P60" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="6" t="n">
+      <c r="P60" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R60" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S60" s="6" t="n">
+      <c r="R60" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6833,19 +7079,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1000</v>
@@ -6857,39 +7103,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J61" s="5" t="n">
+      <c r="J61" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="K61" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L61" s="6" t="n">
+      <c r="L61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M61" s="6" t="n">
+      <c r="M61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N61" s="5" t="n">
+      <c r="N61" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O61" s="6" t="n">
+      <c r="O61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P61" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="6" t="n">
+      <c r="P61" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R61" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S61" s="6" t="n">
+      <c r="R61" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6899,19 +7145,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1000</v>
@@ -6923,39 +7169,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J62" s="5" t="n">
+      <c r="J62" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K62" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L62" s="6" t="n">
+      <c r="L62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M62" s="6" t="n">
+      <c r="M62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N62" s="5" t="n">
+      <c r="N62" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O62" s="6" t="n">
+      <c r="O62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P62" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="6" t="n">
+      <c r="P62" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R62" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S62" s="6" t="n">
+      <c r="R62" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6965,19 +7211,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1000</v>
@@ -6989,39 +7235,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J63" s="5" t="n">
+      <c r="J63" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="K63" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L63" s="6" t="n">
+      <c r="L63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M63" s="6" t="n">
+      <c r="M63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N63" s="5" t="n">
+      <c r="N63" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O63" s="6" t="n">
+      <c r="O63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="6" t="n">
+      <c r="P63" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R63" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S63" s="6" t="n">
+      <c r="R63" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7031,19 +7277,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1000</v>
@@ -7055,39 +7301,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="J64" s="5" t="n">
+      <c r="J64" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="K64" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="L64" s="6" t="n">
+      <c r="L64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="M64" s="6" t="n">
+      <c r="M64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="N64" s="5" t="n">
+      <c r="N64" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="O64" s="6" t="n">
+      <c r="O64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="P64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="6" t="n">
+      <c r="P64" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R64" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S64" s="6" t="n">
+      <c r="R64" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7096,20 +7342,20 @@
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="7" t="n">
+      <c r="B65" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>188</v>
+      <c r="E65" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>550</v>
@@ -7121,39 +7367,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J65" s="8" t="n">
+      <c r="J65" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16363.6363636364</v>
       </c>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="9" t="n">
         <v>9000000</v>
       </c>
-      <c r="L65" s="9" t="n">
+      <c r="L65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="M65" s="9" t="n">
+      <c r="M65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="N65" s="8" t="n">
+      <c r="N65" s="9" t="n">
         <v>12000</v>
       </c>
-      <c r="O65" s="9" t="n">
+      <c r="O65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0218181818181818</v>
       </c>
-      <c r="P65" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="6" t="n">
+      <c r="P65" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R65" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S65" s="6" t="n">
+      <c r="R65" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7162,20 +7408,20 @@
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="7" t="n">
+      <c r="D66" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>190</v>
+      <c r="E66" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>550</v>
@@ -7187,39 +7433,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J66" s="8" t="n">
+      <c r="J66" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="K66" s="8" t="n">
+      <c r="K66" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="L66" s="9" t="n">
+      <c r="L66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="M66" s="9" t="n">
+      <c r="M66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="N66" s="8" t="n">
+      <c r="N66" s="9" t="n">
         <v>14000</v>
       </c>
-      <c r="O66" s="9" t="n">
+      <c r="O66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="P66" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="6" t="n">
+      <c r="P66" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R66" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S66" s="6" t="n">
+      <c r="R66" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S66" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7228,20 +7474,20 @@
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="7" t="n">
+      <c r="B67" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>192</v>
+      <c r="E67" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>550</v>
@@ -7253,39 +7499,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J67" s="8" t="n">
+      <c r="J67" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L67" s="9" t="n">
+      <c r="L67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M67" s="9" t="n">
+      <c r="M67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="N67" s="8" t="n">
+      <c r="N67" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="O67" s="9" t="n">
+      <c r="O67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="P67" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q67" s="6" t="n">
+      <c r="P67" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R67" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S67" s="6" t="n">
+      <c r="R67" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S67" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7294,20 +7540,20 @@
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>194</v>
+      <c r="B68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>550</v>
@@ -7319,39 +7565,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J68" s="8" t="n">
+      <c r="J68" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23636.3636363636</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="9" t="n">
         <v>13000000</v>
       </c>
-      <c r="L68" s="9" t="n">
+      <c r="L68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="M68" s="9" t="n">
+      <c r="M68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20</v>
       </c>
-      <c r="N68" s="8" t="n">
+      <c r="N68" s="9" t="n">
         <v>11000</v>
       </c>
-      <c r="O68" s="9" t="n">
+      <c r="O68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.02</v>
       </c>
-      <c r="P68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q68" s="6" t="n">
+      <c r="P68" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R68" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S68" s="6" t="n">
+      <c r="R68" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S68" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7360,20 +7606,20 @@
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>192</v>
+      <c r="B69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>550</v>
@@ -7385,39 +7631,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J69" s="8" t="n">
+      <c r="J69" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="L69" s="9" t="n">
+      <c r="L69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="M69" s="9" t="n">
+      <c r="M69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="N69" s="8" t="n">
+      <c r="N69" s="9" t="n">
         <v>9000</v>
       </c>
-      <c r="O69" s="9" t="n">
+      <c r="O69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0163636363636364</v>
       </c>
-      <c r="P69" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q69" s="6" t="n">
+      <c r="P69" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R69" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S69" s="6" t="n">
+      <c r="R69" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S69" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7426,20 +7672,20 @@
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="7" t="n">
+      <c r="B70" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>197</v>
+      <c r="E70" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>550</v>
@@ -7451,39 +7697,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J70" s="8" t="n">
+      <c r="J70" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>27272.7272727273</v>
       </c>
-      <c r="K70" s="8" t="n">
+      <c r="K70" s="9" t="n">
         <v>15000000</v>
       </c>
-      <c r="L70" s="9" t="n">
+      <c r="L70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>27.2727272727273</v>
       </c>
-      <c r="M70" s="9" t="n">
+      <c r="M70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="N70" s="8" t="n">
+      <c r="N70" s="9" t="n">
         <v>14000</v>
       </c>
-      <c r="O70" s="9" t="n">
+      <c r="O70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="P70" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="6" t="n">
+      <c r="P70" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R70" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S70" s="6" t="n">
+      <c r="R70" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S70" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7492,20 +7738,20 @@
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="7" t="n">
+      <c r="B71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>199</v>
+      <c r="E71" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>550</v>
@@ -7517,39 +7763,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J71" s="8" t="n">
+      <c r="J71" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="L71" s="9" t="n">
+      <c r="L71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="M71" s="9" t="n">
+      <c r="M71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="N71" s="8" t="n">
+      <c r="N71" s="9" t="n">
         <v>13000</v>
       </c>
-      <c r="O71" s="9" t="n">
+      <c r="O71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0236363636363636</v>
       </c>
-      <c r="P71" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="6" t="n">
+      <c r="P71" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R71" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S71" s="6" t="n">
+      <c r="R71" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S71" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7558,20 +7804,20 @@
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="7" t="n">
+      <c r="B72" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>201</v>
+      <c r="E72" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>550</v>
@@ -7583,39 +7829,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J72" s="8" t="n">
+      <c r="J72" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20909.0909090909</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="9" t="n">
         <v>11500000</v>
       </c>
-      <c r="L72" s="9" t="n">
+      <c r="L72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20.9090909090909</v>
       </c>
-      <c r="M72" s="9" t="n">
+      <c r="M72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N72" s="8" t="n">
+      <c r="N72" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O72" s="9" t="n">
+      <c r="O72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P72" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q72" s="6" t="n">
+      <c r="P72" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R72" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S72" s="6" t="n">
+      <c r="R72" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S72" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7624,20 +7870,20 @@
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="10" t="n">
+      <c r="B73" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>203</v>
+      <c r="E73" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>550</v>
@@ -7649,39 +7895,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J73" s="8" t="n">
+      <c r="J73" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K73" s="8" t="n">
+      <c r="K73" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L73" s="9" t="n">
+      <c r="L73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M73" s="9" t="n">
+      <c r="M73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N73" s="8" t="n">
+      <c r="N73" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O73" s="9" t="n">
+      <c r="O73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P73" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q73" s="6" t="n">
+      <c r="P73" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R73" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S73" s="6" t="n">
+      <c r="R73" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S73" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7690,20 +7936,20 @@
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="7" t="n">
+      <c r="B74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>205</v>
+      <c r="E74" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>550</v>
@@ -7715,39 +7961,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J74" s="8" t="n">
+      <c r="J74" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K74" s="8" t="n">
+      <c r="K74" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L74" s="9" t="n">
+      <c r="L74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M74" s="9" t="n">
+      <c r="M74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N74" s="8" t="n">
+      <c r="N74" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O74" s="9" t="n">
+      <c r="O74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P74" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q74" s="6" t="n">
+      <c r="P74" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R74" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S74" s="6" t="n">
+      <c r="R74" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S74" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7756,20 +8002,20 @@
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="7" t="n">
+      <c r="B75" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>207</v>
+      <c r="E75" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>550</v>
@@ -7781,39 +8027,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J75" s="8" t="n">
+      <c r="J75" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>22727.2727272727</v>
       </c>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="9" t="n">
         <v>12500000</v>
       </c>
-      <c r="L75" s="9" t="n">
+      <c r="L75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>22.7272727272727</v>
       </c>
-      <c r="M75" s="9" t="n">
+      <c r="M75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N75" s="8" t="n">
+      <c r="N75" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O75" s="9" t="n">
+      <c r="O75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P75" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q75" s="6" t="n">
+      <c r="P75" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R75" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S75" s="6" t="n">
+      <c r="R75" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S75" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7822,20 +8068,20 @@
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="7" t="n">
+      <c r="B76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>209</v>
+      <c r="E76" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>550</v>
@@ -7847,39 +8093,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J76" s="8" t="n">
+      <c r="J76" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>19090.9090909091</v>
       </c>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="9" t="n">
         <v>10500000</v>
       </c>
-      <c r="L76" s="9" t="n">
+      <c r="L76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>19.0909090909091</v>
       </c>
-      <c r="M76" s="9" t="n">
+      <c r="M76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N76" s="8" t="n">
+      <c r="N76" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O76" s="9" t="n">
+      <c r="O76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P76" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="6" t="n">
+      <c r="P76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R76" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S76" s="6" t="n">
+      <c r="R76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S76" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7888,20 +8134,20 @@
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="7" t="n">
+      <c r="B77" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>211</v>
+      <c r="E77" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>550</v>
@@ -7913,39 +8159,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J77" s="8" t="n">
+      <c r="J77" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L77" s="9" t="n">
+      <c r="L77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M77" s="9" t="n">
+      <c r="M77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N77" s="8" t="n">
+      <c r="N77" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O77" s="9" t="n">
+      <c r="O77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P77" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q77" s="6" t="n">
+      <c r="P77" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R77" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S77" s="6" t="n">
+      <c r="R77" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S77" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7954,20 +8200,20 @@
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="7" t="n">
+      <c r="B78" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>213</v>
+      <c r="E78" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>550</v>
@@ -7979,39 +8225,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J78" s="8" t="n">
+      <c r="J78" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L78" s="9" t="n">
+      <c r="L78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M78" s="9" t="n">
+      <c r="M78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N78" s="8" t="n">
+      <c r="N78" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O78" s="9" t="n">
+      <c r="O78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P78" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="6" t="n">
+      <c r="P78" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R78" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S78" s="6" t="n">
+      <c r="R78" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S78" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8020,20 +8266,20 @@
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="7" t="n">
+      <c r="B79" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>215</v>
+      <c r="E79" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>550</v>
@@ -8045,39 +8291,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J79" s="8" t="n">
+      <c r="J79" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="L79" s="9" t="n">
+      <c r="L79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="M79" s="9" t="n">
+      <c r="M79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N79" s="8" t="n">
+      <c r="N79" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O79" s="9" t="n">
+      <c r="O79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P79" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q79" s="6" t="n">
+      <c r="P79" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R79" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S79" s="6" t="n">
+      <c r="R79" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S79" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8086,20 +8332,20 @@
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="7" t="n">
+      <c r="B80" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>201</v>
+      <c r="E80" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>550</v>
@@ -8111,39 +8357,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J80" s="8" t="n">
+      <c r="J80" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K80" s="8" t="n">
+      <c r="K80" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L80" s="9" t="n">
+      <c r="L80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M80" s="9" t="n">
+      <c r="M80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N80" s="8" t="n">
+      <c r="N80" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O80" s="9" t="n">
+      <c r="O80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P80" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="6" t="n">
+      <c r="P80" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R80" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S80" s="6" t="n">
+      <c r="R80" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S80" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8152,20 +8398,20 @@
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="7" t="n">
+      <c r="B81" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>218</v>
+      <c r="E81" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>550</v>
@@ -8177,39 +8423,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J81" s="8" t="n">
+      <c r="J81" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K81" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="L81" s="9" t="n">
+      <c r="L81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="M81" s="9" t="n">
+      <c r="M81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N81" s="8" t="n">
+      <c r="N81" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O81" s="9" t="n">
+      <c r="O81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P81" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q81" s="6" t="n">
+      <c r="P81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R81" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S81" s="6" t="n">
+      <c r="R81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S81" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8218,20 +8464,20 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="7" t="n">
+      <c r="B82" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>205</v>
+      <c r="E82" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>550</v>
@@ -8243,39 +8489,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="J82" s="8" t="n">
+      <c r="J82" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="K82" s="8" t="n">
+      <c r="K82" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="L82" s="9" t="n">
+      <c r="L82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M82" s="9" t="n">
+      <c r="M82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="N82" s="8" t="n">
+      <c r="N82" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="O82" s="9" t="n">
+      <c r="O82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="P82" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q82" s="6" t="n">
+      <c r="P82" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="R82" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S82" s="6" t="n">
+      <c r="R82" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="S82" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8285,19 +8531,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>250</v>
@@ -8309,39 +8555,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="J83" s="5" t="n">
+      <c r="J83" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="K83" s="5" t="n">
+      <c r="K83" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="L83" s="6" t="n">
+      <c r="L83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="M83" s="6" t="n">
+      <c r="M83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="N83" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O83" s="6" t="n">
+      <c r="N83" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="P83" s="5" t="n">
+      <c r="P83" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="Q83" s="6" t="n">
+      <c r="Q83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="R83" s="5" t="n">
+      <c r="R83" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="S83" s="6" t="n">
+      <c r="S83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8351,19 +8597,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="D84" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>250</v>
@@ -8375,39 +8621,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="J84" s="5" t="n">
+      <c r="J84" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="K84" s="5" t="n">
+      <c r="K84" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="L84" s="6" t="n">
+      <c r="L84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="M84" s="6" t="n">
+      <c r="M84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="N84" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O84" s="6" t="n">
+      <c r="N84" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="P84" s="5" t="n">
+      <c r="P84" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="Q84" s="6" t="n">
+      <c r="Q84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="R84" s="5" t="n">
+      <c r="R84" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="S84" s="6" t="n">
+      <c r="S84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8417,19 +8663,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>250</v>
@@ -8441,39 +8687,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="J85" s="5" t="n">
+      <c r="J85" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="K85" s="5" t="n">
+      <c r="K85" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="L85" s="6" t="n">
+      <c r="L85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="M85" s="6" t="n">
+      <c r="M85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="N85" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O85" s="6" t="n">
+      <c r="N85" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="P85" s="5" t="n">
+      <c r="P85" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="Q85" s="6" t="n">
+      <c r="Q85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="R85" s="5" t="n">
+      <c r="R85" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="S85" s="6" t="n">
+      <c r="S85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8500,17 +8746,17 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,11 +8788,11 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
@@ -8555,54 +8801,48 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -8642,14 +8882,8 @@
       <c r="M2" s="0" t="n">
         <v>4977</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>882</v>
-      </c>
-      <c r="O2" s="11" t="n">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -8689,14 +8923,8 @@
       <c r="M3" s="0" t="n">
         <v>8930</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>690</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -8736,14 +8964,8 @@
       <c r="M4" s="0" t="n">
         <v>10945</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>2825</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -8783,14 +9005,8 @@
       <c r="M5" s="0" t="n">
         <v>7329</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>935</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -8830,14 +9046,8 @@
       <c r="M6" s="0" t="n">
         <v>8340</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>369</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -8877,14 +9087,8 @@
       <c r="M7" s="0" t="n">
         <v>11824</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>1146</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>9355</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -8924,14 +9128,8 @@
       <c r="M8" s="0" t="n">
         <v>24636</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>2432</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>17015</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -8971,14 +9169,8 @@
       <c r="M9" s="0" t="n">
         <v>5993</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>746</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -9018,14 +9210,8 @@
       <c r="M10" s="0" t="n">
         <v>9283</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>1150</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>7313</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -9065,14 +9251,8 @@
       <c r="M11" s="0" t="n">
         <v>7215</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>1763</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -9112,14 +9292,8 @@
       <c r="M12" s="0" t="n">
         <v>13146</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>2412</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>12579</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -9159,14 +9333,8 @@
       <c r="M13" s="0" t="n">
         <v>12314</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <v>1956</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>11641</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -9206,14 +9374,8 @@
       <c r="M14" s="0" t="n">
         <v>11830</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>1389</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -9253,14 +9415,8 @@
       <c r="M15" s="0" t="n">
         <v>7192</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>545</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -9300,15 +9456,9 @@
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>-9999999</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>495618</v>
-      </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -9348,14 +9498,8 @@
       <c r="M17" s="0" t="n">
         <v>29977</v>
       </c>
-      <c r="N17" s="0" t="n">
-        <v>2649</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>21851</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -9395,14 +9539,8 @@
       <c r="M18" s="0" t="n">
         <v>4950</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>608</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>4978</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -9442,14 +9580,8 @@
       <c r="M19" s="0" t="n">
         <v>8335</v>
       </c>
-      <c r="N19" s="0" t="n">
-        <v>1142</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>6465</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -9489,14 +9621,8 @@
       <c r="M20" s="0" t="n">
         <v>9840</v>
       </c>
-      <c r="N20" s="0" t="n">
-        <v>947</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -9536,14 +9662,8 @@
       <c r="M21" s="0" t="n">
         <v>9091</v>
       </c>
-      <c r="N21" s="0" t="n">
-        <v>688</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -9583,14 +9703,8 @@
       <c r="M22" s="0" t="n">
         <v>11339</v>
       </c>
-      <c r="N22" s="0" t="n">
-        <v>1770</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>6447</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -9630,14 +9744,8 @@
       <c r="M23" s="0" t="n">
         <v>12640</v>
       </c>
-      <c r="N23" s="0" t="n">
-        <v>1492</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>9606</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -9677,14 +9785,8 @@
       <c r="M24" s="0" t="n">
         <v>18699</v>
       </c>
-      <c r="N24" s="0" t="n">
-        <v>2418</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>12950</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -9724,14 +9826,8 @@
       <c r="M25" s="0" t="n">
         <v>12688</v>
       </c>
-      <c r="N25" s="0" t="n">
-        <v>978</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>11090</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -9771,14 +9867,8 @@
       <c r="M26" s="0" t="n">
         <v>15589</v>
       </c>
-      <c r="N26" s="0" t="n">
-        <v>1315</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -9818,14 +9908,8 @@
       <c r="M27" s="0" t="n">
         <v>7520</v>
       </c>
-      <c r="N27" s="0" t="n">
-        <v>914</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
@@ -9865,14 +9949,8 @@
       <c r="M28" s="0" t="n">
         <v>28696</v>
       </c>
-      <c r="N28" s="0" t="n">
-        <v>3957</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>17758</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
@@ -9912,14 +9990,8 @@
       <c r="M29" s="0" t="n">
         <v>13531</v>
       </c>
-      <c r="N29" s="0" t="n">
-        <v>944</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>13208</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
@@ -9959,14 +10031,8 @@
       <c r="M30" s="0" t="n">
         <v>10119</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <v>1823</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>5712</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
@@ -10006,14 +10072,8 @@
       <c r="M31" s="0" t="n">
         <v>8913</v>
       </c>
-      <c r="N31" s="0" t="n">
-        <v>1141</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>7366</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
@@ -10053,14 +10113,8 @@
       <c r="M32" s="0" t="n">
         <v>13174</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <v>2928</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>8510</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
@@ -10100,14 +10154,8 @@
       <c r="M33" s="0" t="n">
         <v>4442</v>
       </c>
-      <c r="N33" s="0" t="n">
-        <v>1291</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
@@ -10147,14 +10195,8 @@
       <c r="M34" s="0" t="n">
         <v>7560</v>
       </c>
-      <c r="N34" s="0" t="n">
-        <v>948</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>4907</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -10194,14 +10236,8 @@
       <c r="M35" s="0" t="n">
         <v>8288</v>
       </c>
-      <c r="N35" s="0" t="n">
-        <v>1512</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>5607</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
@@ -10241,14 +10277,8 @@
       <c r="M36" s="0" t="n">
         <v>2410</v>
       </c>
-      <c r="N36" s="0" t="n">
-        <v>421</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
@@ -10288,14 +10318,8 @@
       <c r="M37" s="0" t="n">
         <v>3094</v>
       </c>
-      <c r="N37" s="0" t="n">
-        <v>414</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
@@ -10335,14 +10359,8 @@
       <c r="M38" s="0" t="n">
         <v>16508</v>
       </c>
-      <c r="N38" s="0" t="n">
-        <v>2224</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>13867</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
@@ -10382,14 +10400,8 @@
       <c r="M39" s="0" t="n">
         <v>5764</v>
       </c>
-      <c r="N39" s="0" t="n">
-        <v>805</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
@@ -10429,14 +10441,8 @@
       <c r="M40" s="0" t="n">
         <v>14170</v>
       </c>
-      <c r="N40" s="0" t="n">
-        <v>728</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
@@ -10476,14 +10482,8 @@
       <c r="M41" s="0" t="n">
         <v>2672</v>
       </c>
-      <c r="N41" s="0" t="n">
-        <v>330</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
@@ -10523,14 +10523,8 @@
       <c r="M42" s="0" t="n">
         <v>10827</v>
       </c>
-      <c r="N42" s="0" t="n">
-        <v>1074</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
@@ -10570,14 +10564,8 @@
       <c r="M43" s="0" t="n">
         <v>9893</v>
       </c>
-      <c r="N43" s="0" t="n">
-        <v>983</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
@@ -10617,14 +10605,8 @@
       <c r="M44" s="0" t="n">
         <v>3154</v>
       </c>
-      <c r="N44" s="0" t="n">
-        <v>362</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
@@ -10664,14 +10646,8 @@
       <c r="M45" s="0" t="n">
         <v>6144</v>
       </c>
-      <c r="N45" s="0" t="n">
-        <v>478</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
@@ -10711,14 +10687,8 @@
       <c r="M46" s="0" t="n">
         <v>5073</v>
       </c>
-      <c r="N46" s="0" t="n">
-        <v>443</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
@@ -10757,12 +10727,6 @@
       </c>
       <c r="M47" s="0" t="n">
         <v>18189</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>1652</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>9346</v>
       </c>
     </row>
   </sheetData>
